--- a/graph.xlsx
+++ b/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matanel\Documents\University\Year2\SemesterB\67808-OS\Exercises\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE48B4DD-225C-4FDB-8131-F89097F504C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B24E52-C03E-4B00-8D7A-8B2495D3A0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30168" windowHeight="20184" xr2:uid="{C6A71BF6-A859-455F-B82C-36D33C55CA41}"/>
   </bookViews>
@@ -35,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>single addition</t>
-  </si>
-  <si>
-    <t>empty function</t>
-  </si>
-  <si>
-    <t>trap</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Directry On Machine</t>
   </si>
@@ -54,15 +45,40 @@
   <si>
     <t>On Container</t>
   </si>
+  <si>
+    <t>iterations = 100</t>
+  </si>
+  <si>
+    <t>iterations = 1000</t>
+  </si>
+  <si>
+    <t>iterations = 10000</t>
+  </si>
+  <si>
+    <t>Single Addition</t>
+  </si>
+  <si>
+    <t>Empty Function</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,279 +139,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>single addition</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Directry On Machine</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>On Container</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>On VM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3240</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8013-4272-A35F-EA337B37DB5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>empty function</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Directry On Machine</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>On Container</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>On VM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6640</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8013-4272-A35F-EA337B37DB5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>trap</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Directry On Machine</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>On Container</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>On VM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>63400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47540</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8013-4272-A35F-EA337B37DB5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1342014880"/>
-        <c:axId val="1342015296"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1342014880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -406,171 +157,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="1342015296"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1342015296"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1342014880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -637,13 +230,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>single addition</c:v>
+                  <c:v>Single Addition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>empty function</c:v>
+                  <c:v>Empty Function</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>trap</c:v>
+                  <c:v>Trap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -655,13 +248,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63400</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,13 +295,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>single addition</c:v>
+                  <c:v>Single Addition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>empty function</c:v>
+                  <c:v>Empty Function</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>trap</c:v>
+                  <c:v>Trap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -720,13 +313,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47540</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,13 +360,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>single addition</c:v>
+                  <c:v>Single Addition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>empty function</c:v>
+                  <c:v>Empty Function</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>trap</c:v>
+                  <c:v>Trap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -785,13 +378,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3240</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6640</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69260</c:v>
+                  <c:v>786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,6 +599,956 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Directry On Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Single Addition</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Empty Function</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>576.70000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F0E-4729-8F8B-67D311957FD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>On Container</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Single Addition</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Empty Function</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519.20000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F0E-4729-8F8B-67D311957FD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>On VM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Single Addition</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Empty Function</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>960.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F0E-4729-8F8B-67D311957FD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1078501935"/>
+        <c:axId val="1078506511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1078501935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078506511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1078506511"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078501935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Directry On Machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$23:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Single Addition</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Empty Function</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>492.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5993-4BB9-8383-D14D8DDAD3DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>On Container</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$23:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Single Addition</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Empty Function</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>478.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5993-4BB9-8383-D14D8DDAD3DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>On VM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$23:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Single Addition</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Empty Function</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2948.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5993-4BB9-8383-D14D8DDAD3DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="974485103"/>
+        <c:axId val="974481359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="974485103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974481359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="974481359"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974485103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1086,8 +1629,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1195,11 +1778,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1210,11 +1788,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1246,9 +1819,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1603,6 +2173,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2110,22 +3183,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>116205</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>421005</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C02181-5068-4636-837B-BE3DC55D1B9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F3C8D9-9701-499B-86EF-5E17C1D5B5BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,23 +3218,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>119064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F3C8D9-9701-499B-86EF-5E17C1D5B5BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB32ACD-C5AB-453B-964E-6EE5D5ECD2AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,6 +3247,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C2F37D-86A1-4E6A-A905-9078CEDA7186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2479,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA56488-1A4E-4019-A312-7AB40DC1F38A}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A9:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2493,114 +3602,177 @@
     <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>400</v>
-      </c>
-      <c r="C2">
-        <v>240</v>
-      </c>
-      <c r="D2">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>360</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>6640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>63400</v>
-      </c>
-      <c r="C4">
-        <v>47540</v>
-      </c>
-      <c r="D4">
-        <v>69260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>400</v>
-      </c>
       <c r="C10">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>63400</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>47540</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>3240</v>
-      </c>
-      <c r="C12">
-        <v>6640</v>
-      </c>
-      <c r="D12">
-        <v>69260</v>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2.7</v>
+      </c>
+      <c r="C17">
+        <v>2.6</v>
+      </c>
+      <c r="D17">
+        <v>576.70000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2.8</v>
+      </c>
+      <c r="C18">
+        <v>2.4</v>
+      </c>
+      <c r="D18">
+        <v>519.20000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>31.6</v>
+      </c>
+      <c r="D19">
+        <v>960.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2.77</v>
+      </c>
+      <c r="C24">
+        <v>2.5</v>
+      </c>
+      <c r="D24">
+        <v>492.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>2.78</v>
+      </c>
+      <c r="C25">
+        <v>2.41</v>
+      </c>
+      <c r="D25">
+        <v>478.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>6.37</v>
+      </c>
+      <c r="C26">
+        <v>34.5</v>
+      </c>
+      <c r="D26">
+        <v>2948.91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/graph.xlsx
+++ b/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matanel\Documents\University\Year2\SemesterB\67808-OS\Exercises\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B24E52-C03E-4B00-8D7A-8B2495D3A0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E1F4AF-BA4A-49C3-860B-7125C7652CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30168" windowHeight="20184" xr2:uid="{C6A71BF6-A859-455F-B82C-36D33C55CA41}"/>
   </bookViews>
@@ -37,15 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
-    <t>Directry On Machine</t>
-  </si>
-  <si>
-    <t>On VM</t>
-  </si>
-  <si>
-    <t>On Container</t>
-  </si>
-  <si>
     <t>iterations = 100</t>
   </si>
   <si>
@@ -62,6 +53,15 @@
   </si>
   <si>
     <t>Trap</t>
+  </si>
+  <si>
+    <t>Directly On Machine</t>
+  </si>
+  <si>
+    <t>Using a Container</t>
+  </si>
+  <si>
+    <t>Using a VM</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Directry On Machine</c:v>
+                  <c:v>Directly On Machine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -274,7 +274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>On Container</c:v>
+                  <c:v>Using a Container</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -339,7 +339,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>On VM</c:v>
+                  <c:v>Using a VM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -684,7 +684,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Directry On Machine</c:v>
+                  <c:v>Directly On Machine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -749,7 +749,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>On Container</c:v>
+                  <c:v>Using a Container</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -814,7 +814,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>On VM</c:v>
+                  <c:v>Using a VM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1159,7 +1159,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Directry On Machine</c:v>
+                  <c:v>Directly On Machine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1224,7 +1224,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>On Container</c:v>
+                  <c:v>Using a Container</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1289,7 +1289,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>On VM</c:v>
+                  <c:v>Using a VM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3255,15 +3255,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA56488-1A4E-4019-A312-7AB40DC1F38A}">
   <dimension ref="A9:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3604,21 +3604,21 @@
   <sheetData>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>27</v>
@@ -3660,21 +3660,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>2.7</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>2.8</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -3716,21 +3716,21 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>2.77</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>2.78</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>6.37</v>

--- a/graph.xlsx
+++ b/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matanel\Documents\University\Year2\SemesterB\67808-OS\Exercises\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E1F4AF-BA4A-49C3-860B-7125C7652CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF74B571-F339-4576-B2DE-21BBD1F55EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30168" windowHeight="20184" xr2:uid="{C6A71BF6-A859-455F-B82C-36D33C55CA41}"/>
   </bookViews>
@@ -1109,7 +1109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Runtime</a:t>
+              <a:t>Runtime Comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1174,6 +1174,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$23:$D$23</c:f>
@@ -1239,6 +1297,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$23:$D$23</c:f>
@@ -1304,6 +1420,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$23:$D$23</c:f>
@@ -1346,8 +1520,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1365,6 +1540,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="700" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Function type</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IL" sz="100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1431,6 +1666,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="700"/>
+                  <a:t>Time in nano-seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1476,6 +1766,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14600514741482556"/>
+          <c:y val="0.81646017524767822"/>
+          <c:w val="0.81877313203589464"/>
+          <c:h val="0.11044671049546262"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3254,16 +3554,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>669537</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>93855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438265</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30781</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3590,8 +3890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA56488-1A4E-4019-A312-7AB40DC1F38A}">
   <dimension ref="A9:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
